--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357587</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357587</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959260148.4756206</v>
+        <v>39594109.75240055</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8204.733751176622</v>
+        <v>914655.5282151087</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15587.14296627757</v>
+        <v>1701334.826863289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22969.55218137852</v>
+        <v>2488014.125511471</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30724.0480272923</v>
+        <v>3295091.67188096</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38378.20771158994</v>
+        <v>4082202.322088832</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46032.36739588756</v>
+        <v>4869312.972296703</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53686.52708018517</v>
+        <v>5656423.622504571</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61340.68676448279</v>
+        <v>6443534.272712439</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68994.84644878042</v>
+        <v>7230644.922920308</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76649.00613307803</v>
+        <v>8017755.573128177</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84303.16581737564</v>
+        <v>8804866.22333605</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91615.69060530991</v>
+        <v>9573664.692533826</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99020.23640334517</v>
+        <v>10360775.3427417</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106424.7822013804</v>
+        <v>11147885.99294958</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113829.3279994157</v>
+        <v>11934996.64315746</v>
       </c>
     </row>
   </sheetData>
